--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2724286.909782451</v>
+        <v>2721788.65846124</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673418</v>
       </c>
     </row>
     <row r="9">
@@ -1370,19 +1370,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>311.7236160152347</v>
       </c>
       <c r="F11" t="n">
-        <v>332.7429510107643</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1430,10 +1430,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
         <v>120.2716844800353</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>275.9723987444503</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1667,10 +1667,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>162.7202533942525</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
         <v>120.2716844800353</v>
@@ -1771,16 +1771,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
         <v>49.37728379124555</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.3310575773448</v>
+        <v>288.3310575773447</v>
       </c>
       <c r="C17" t="n">
-        <v>270.8701076848718</v>
+        <v>270.8701076848716</v>
       </c>
       <c r="D17" t="n">
-        <v>260.2802575345472</v>
+        <v>260.280257534547</v>
       </c>
       <c r="E17" t="n">
-        <v>287.527585986126</v>
+        <v>287.5275859861259</v>
       </c>
       <c r="F17" t="n">
-        <v>312.4732616555757</v>
+        <v>312.4732616555755</v>
       </c>
       <c r="G17" t="n">
-        <v>316.5189415673177</v>
+        <v>270.5718355797498</v>
       </c>
       <c r="H17" t="n">
-        <v>200.2049803011847</v>
+        <v>200.2049803011845</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>14.78497770203991</v>
       </c>
       <c r="T17" t="n">
-        <v>109.5151860534844</v>
+        <v>109.5151860534842</v>
       </c>
       <c r="U17" t="n">
-        <v>156.5923878727662</v>
+        <v>156.592387872766</v>
       </c>
       <c r="V17" t="n">
-        <v>202.1873460984715</v>
+        <v>233.349474383999</v>
       </c>
       <c r="W17" t="n">
-        <v>254.8381846312772</v>
+        <v>254.8381846312771</v>
       </c>
       <c r="X17" t="n">
-        <v>275.3283165923333</v>
+        <v>275.3283165923331</v>
       </c>
       <c r="Y17" t="n">
-        <v>291.8351545699178</v>
+        <v>291.8351545699177</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824781</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.42919609580153</v>
+        <v>85.42919609580137</v>
       </c>
       <c r="C19" t="n">
-        <v>72.84403701249207</v>
+        <v>72.84403701249191</v>
       </c>
       <c r="D19" t="n">
-        <v>54.21268893207659</v>
+        <v>54.21268893207643</v>
       </c>
       <c r="E19" t="n">
-        <v>52.0311785604334</v>
+        <v>52.03117856043325</v>
       </c>
       <c r="F19" t="n">
-        <v>51.01826393679548</v>
+        <v>51.01826393679532</v>
       </c>
       <c r="G19" t="n">
-        <v>71.62302417289246</v>
+        <v>71.6230241728923</v>
       </c>
       <c r="H19" t="n">
-        <v>50.35223082818501</v>
+        <v>50.35223082818486</v>
       </c>
       <c r="I19" t="n">
-        <v>1.949636323702315</v>
+        <v>1.949636323702173</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.36624124530613</v>
+        <v>95.36624124530599</v>
       </c>
       <c r="T19" t="n">
-        <v>125.1461651900334</v>
+        <v>125.1461651900333</v>
       </c>
       <c r="U19" t="n">
-        <v>191.8090541194771</v>
+        <v>191.8090541194769</v>
       </c>
       <c r="V19" t="n">
-        <v>157.7348592376922</v>
+        <v>157.7348592376921</v>
       </c>
       <c r="W19" t="n">
-        <v>192.1202142504552</v>
+        <v>192.1202142504551</v>
       </c>
       <c r="X19" t="n">
-        <v>131.3068713029014</v>
+        <v>131.3068713029012</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.181869265959</v>
+        <v>124.1818692659589</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.3310575773448</v>
+        <v>288.3310575773447</v>
       </c>
       <c r="C20" t="n">
-        <v>270.8701076848718</v>
+        <v>270.8701076848716</v>
       </c>
       <c r="D20" t="n">
-        <v>260.2802575345472</v>
+        <v>260.280257534547</v>
       </c>
       <c r="E20" t="n">
-        <v>287.527585986126</v>
+        <v>287.5275859861259</v>
       </c>
       <c r="F20" t="n">
-        <v>266.5261556680073</v>
+        <v>312.4732616555755</v>
       </c>
       <c r="G20" t="n">
-        <v>316.5189415673177</v>
+        <v>316.5189415673175</v>
       </c>
       <c r="H20" t="n">
-        <v>200.2049803011847</v>
+        <v>154.2578743136181</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.78497770204007</v>
+        <v>14.7849777020399</v>
       </c>
       <c r="T20" t="n">
-        <v>109.5151860534844</v>
+        <v>109.5151860534842</v>
       </c>
       <c r="U20" t="n">
-        <v>156.5923878727662</v>
+        <v>156.592387872766</v>
       </c>
       <c r="V20" t="n">
-        <v>233.3494743839991</v>
+        <v>233.349474383999</v>
       </c>
       <c r="W20" t="n">
-        <v>254.8381846312772</v>
+        <v>254.8381846312771</v>
       </c>
       <c r="X20" t="n">
-        <v>275.3283165923333</v>
+        <v>275.3283165923331</v>
       </c>
       <c r="Y20" t="n">
-        <v>291.8351545699178</v>
+        <v>291.8351545699177</v>
       </c>
     </row>
     <row r="21">
@@ -2208,7 +2208,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.42919609580153</v>
+        <v>85.42919609580137</v>
       </c>
       <c r="C22" t="n">
-        <v>72.84403701249207</v>
+        <v>72.84403701249191</v>
       </c>
       <c r="D22" t="n">
-        <v>54.21268893207659</v>
+        <v>54.21268893207643</v>
       </c>
       <c r="E22" t="n">
-        <v>52.0311785604334</v>
+        <v>52.03117856043325</v>
       </c>
       <c r="F22" t="n">
-        <v>51.01826393679548</v>
+        <v>51.01826393679532</v>
       </c>
       <c r="G22" t="n">
-        <v>71.62302417289246</v>
+        <v>71.6230241728923</v>
       </c>
       <c r="H22" t="n">
-        <v>50.35223082818501</v>
+        <v>50.35223082818486</v>
       </c>
       <c r="I22" t="n">
-        <v>1.949636323702329</v>
+        <v>1.949636323702173</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.36624124530613</v>
+        <v>95.36624124530599</v>
       </c>
       <c r="T22" t="n">
-        <v>125.1461651900334</v>
+        <v>125.1461651900333</v>
       </c>
       <c r="U22" t="n">
-        <v>191.8090541194771</v>
+        <v>191.8090541194769</v>
       </c>
       <c r="V22" t="n">
-        <v>157.7348592376922</v>
+        <v>157.7348592376921</v>
       </c>
       <c r="W22" t="n">
-        <v>192.1202142504552</v>
+        <v>192.1202142504551</v>
       </c>
       <c r="X22" t="n">
-        <v>131.3068713029014</v>
+        <v>131.3068713029012</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.181869265959</v>
+        <v>124.1818692659589</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.3310575773448</v>
+        <v>288.3310575773447</v>
       </c>
       <c r="C23" t="n">
-        <v>270.8701076848718</v>
+        <v>270.8701076848716</v>
       </c>
       <c r="D23" t="n">
-        <v>260.2802575345472</v>
+        <v>260.280257534547</v>
       </c>
       <c r="E23" t="n">
-        <v>287.527585986126</v>
+        <v>287.5275859861259</v>
       </c>
       <c r="F23" t="n">
-        <v>312.4732616555757</v>
+        <v>312.4732616555755</v>
       </c>
       <c r="G23" t="n">
-        <v>316.5189415673177</v>
+        <v>316.5189415673175</v>
       </c>
       <c r="H23" t="n">
-        <v>200.2049803011847</v>
+        <v>154.2578743136188</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.78497770204007</v>
+        <v>14.78497770203992</v>
       </c>
       <c r="T23" t="n">
-        <v>109.5151860534844</v>
+        <v>109.5151860534842</v>
       </c>
       <c r="U23" t="n">
-        <v>110.6452818851975</v>
+        <v>156.5923878727661</v>
       </c>
       <c r="V23" t="n">
-        <v>233.3494743839991</v>
+        <v>233.349474383999</v>
       </c>
       <c r="W23" t="n">
-        <v>254.8381846312772</v>
+        <v>254.8381846312771</v>
       </c>
       <c r="X23" t="n">
-        <v>275.3283165923333</v>
+        <v>275.3283165923331</v>
       </c>
       <c r="Y23" t="n">
-        <v>291.8351545699178</v>
+        <v>291.8351545699177</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.42919609580153</v>
+        <v>85.42919609580139</v>
       </c>
       <c r="C25" t="n">
-        <v>72.84403701249207</v>
+        <v>72.84403701249192</v>
       </c>
       <c r="D25" t="n">
-        <v>54.21268893207659</v>
+        <v>54.21268893207645</v>
       </c>
       <c r="E25" t="n">
-        <v>52.0311785604334</v>
+        <v>52.03117856043326</v>
       </c>
       <c r="F25" t="n">
-        <v>51.01826393679548</v>
+        <v>51.01826393679534</v>
       </c>
       <c r="G25" t="n">
-        <v>71.62302417289246</v>
+        <v>71.62302417289231</v>
       </c>
       <c r="H25" t="n">
-        <v>50.35223082818501</v>
+        <v>50.35223082818487</v>
       </c>
       <c r="I25" t="n">
-        <v>1.949636323702329</v>
+        <v>1.949636323702187</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.36624124530613</v>
+        <v>95.36624124530599</v>
       </c>
       <c r="T25" t="n">
-        <v>125.1461651900334</v>
+        <v>125.1461651900333</v>
       </c>
       <c r="U25" t="n">
-        <v>191.8090541194771</v>
+        <v>191.8090541194769</v>
       </c>
       <c r="V25" t="n">
-        <v>157.7348592376922</v>
+        <v>157.7348592376921</v>
       </c>
       <c r="W25" t="n">
-        <v>192.1202142504552</v>
+        <v>192.1202142504551</v>
       </c>
       <c r="X25" t="n">
-        <v>131.3068713029014</v>
+        <v>131.3068713029012</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.181869265959</v>
+        <v>124.1818692659589</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.3061941959373</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>317.8452443034642</v>
       </c>
       <c r="D26" t="n">
-        <v>307.2553941531397</v>
+        <v>307.2553941531396</v>
       </c>
       <c r="E26" t="n">
-        <v>334.5027226047185</v>
+        <v>334.5027226047184</v>
       </c>
       <c r="F26" t="n">
-        <v>275.5079451796382</v>
+        <v>359.4483982741681</v>
       </c>
       <c r="G26" t="n">
-        <v>363.4940781859102</v>
+        <v>363.4940781859101</v>
       </c>
       <c r="H26" t="n">
-        <v>247.1801169197772</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>61.76011432063262</v>
+        <v>61.76011432063248</v>
       </c>
       <c r="T26" t="n">
-        <v>156.4903226720769</v>
+        <v>156.4903226720768</v>
       </c>
       <c r="U26" t="n">
-        <v>203.5675244913588</v>
+        <v>203.5675244913586</v>
       </c>
       <c r="V26" t="n">
-        <v>280.3246110025917</v>
+        <v>280.3246110025916</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>301.8133212498697</v>
       </c>
       <c r="X26" t="n">
-        <v>322.3034532109258</v>
+        <v>322.3034532109257</v>
       </c>
       <c r="Y26" t="n">
-        <v>338.8102911885103</v>
+        <v>217.6975836563625</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2649,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I27" t="n">
         <v>18.81721868247742</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.4043327143941</v>
+        <v>132.4043327143939</v>
       </c>
       <c r="C28" t="n">
-        <v>119.8191736310846</v>
+        <v>119.8191736310845</v>
       </c>
       <c r="D28" t="n">
-        <v>101.1878255506691</v>
+        <v>101.187825550669</v>
       </c>
       <c r="E28" t="n">
-        <v>99.00631517902595</v>
+        <v>99.00631517902582</v>
       </c>
       <c r="F28" t="n">
-        <v>97.99340055538802</v>
+        <v>97.99340055538789</v>
       </c>
       <c r="G28" t="n">
-        <v>118.598160791485</v>
+        <v>118.5981607914849</v>
       </c>
       <c r="H28" t="n">
-        <v>97.32736744677756</v>
+        <v>97.32736744677743</v>
       </c>
       <c r="I28" t="n">
-        <v>48.92477294229487</v>
+        <v>48.92477294229474</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.50450520250409</v>
+        <v>41.50450520250398</v>
       </c>
       <c r="S28" t="n">
-        <v>142.3413778638987</v>
+        <v>142.3413778638985</v>
       </c>
       <c r="T28" t="n">
-        <v>172.121301808626</v>
+        <v>172.1213018086258</v>
       </c>
       <c r="U28" t="n">
-        <v>238.7841907380696</v>
+        <v>238.7841907380695</v>
       </c>
       <c r="V28" t="n">
-        <v>204.7099958562848</v>
+        <v>204.7099958562846</v>
       </c>
       <c r="W28" t="n">
-        <v>239.0953508690478</v>
+        <v>239.0953508690476</v>
       </c>
       <c r="X28" t="n">
-        <v>178.2820079214939</v>
+        <v>178.2820079214938</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.1570058845516</v>
+        <v>171.1570058845514</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>335.3061941959373</v>
       </c>
       <c r="C29" t="n">
-        <v>10.50906258095136</v>
+        <v>317.8452443034643</v>
       </c>
       <c r="D29" t="n">
         <v>307.2553941531397</v>
@@ -2801,13 +2801,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>359.4483982741682</v>
+        <v>359.4483982741681</v>
       </c>
       <c r="G29" t="n">
-        <v>363.4940781859102</v>
+        <v>241.5778990625427</v>
       </c>
       <c r="H29" t="n">
-        <v>247.1801169197772</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>61.76011432063257</v>
       </c>
       <c r="T29" t="n">
-        <v>156.490322672077</v>
+        <v>156.4903226720768</v>
       </c>
       <c r="U29" t="n">
-        <v>203.5675244913588</v>
+        <v>203.5675244913587</v>
       </c>
       <c r="V29" t="n">
-        <v>280.3246110025917</v>
+        <v>280.3246110025916</v>
       </c>
       <c r="W29" t="n">
-        <v>301.8133212498698</v>
+        <v>301.8133212498697</v>
       </c>
       <c r="X29" t="n">
-        <v>322.3034532109258</v>
+        <v>322.3034532109257</v>
       </c>
       <c r="Y29" t="n">
-        <v>338.8102911885104</v>
+        <v>338.8102911885103</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2886,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247742</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.4043327143941</v>
+        <v>132.404332714394</v>
       </c>
       <c r="C31" t="n">
         <v>119.8191736310846</v>
@@ -2956,19 +2956,19 @@
         <v>101.1878255506691</v>
       </c>
       <c r="E31" t="n">
-        <v>99.00631517902596</v>
+        <v>99.00631517902589</v>
       </c>
       <c r="F31" t="n">
-        <v>97.99340055538804</v>
+        <v>97.99340055538796</v>
       </c>
       <c r="G31" t="n">
-        <v>118.598160791485</v>
+        <v>118.5981607914849</v>
       </c>
       <c r="H31" t="n">
-        <v>97.32736744677757</v>
+        <v>97.3273674467775</v>
       </c>
       <c r="I31" t="n">
-        <v>48.92477294229489</v>
+        <v>48.92477294229482</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.50450520250412</v>
+        <v>41.50450520250403</v>
       </c>
       <c r="S31" t="n">
-        <v>142.3413778638987</v>
+        <v>142.3413778638986</v>
       </c>
       <c r="T31" t="n">
-        <v>172.121301808626</v>
+        <v>172.1213018086259</v>
       </c>
       <c r="U31" t="n">
         <v>238.7841907380696</v>
       </c>
       <c r="V31" t="n">
-        <v>204.7099958562848</v>
+        <v>204.7099958562847</v>
       </c>
       <c r="W31" t="n">
-        <v>239.0953508690478</v>
+        <v>239.0953508690477</v>
       </c>
       <c r="X31" t="n">
         <v>178.2820079214939</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.1570058845516</v>
+        <v>171.1570058845515</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C32" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D32" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E32" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F32" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G32" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H32" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T32" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U32" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V32" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W32" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X32" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y32" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.1472599538323</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C34" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D34" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E34" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F34" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G34" t="n">
-        <v>68.34108803092323</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H34" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333699</v>
       </c>
       <c r="T34" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U34" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V34" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W34" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X34" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y34" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851137</v>
       </c>
       <c r="I36" t="n">
         <v>18.81721868247742</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G37" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621576</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775078</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247764</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G40" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621576</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775078</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925776</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893092</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383228</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G43" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333687</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3992,7 +3992,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007116</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4107,7 +4107,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U45" t="n">
         <v>225.7871683969286</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
         <v>154.452923095723</v>
@@ -4198,7 +4198,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239898</v>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1669.527577311085</v>
+        <v>1627.383644777221</v>
       </c>
       <c r="C11" t="n">
-        <v>1669.527577311085</v>
+        <v>1305.870760784882</v>
       </c>
       <c r="D11" t="n">
-        <v>1358.711511652408</v>
+        <v>995.0546951262052</v>
       </c>
       <c r="E11" t="n">
-        <v>1020.372892002237</v>
+        <v>680.1823557168773</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822731</v>
+        <v>316.646083875343</v>
       </c>
       <c r="G11" t="n">
         <v>316.646083875343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
@@ -5063,28 +5063,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084341</v>
       </c>
       <c r="T11" t="n">
-        <v>3167.077706941467</v>
+        <v>3104.236671416636</v>
       </c>
       <c r="U11" t="n">
-        <v>2960.996863163376</v>
+        <v>2898.155827638546</v>
       </c>
       <c r="V11" t="n">
-        <v>2677.383608767879</v>
+        <v>2614.542573243049</v>
       </c>
       <c r="W11" t="n">
-        <v>2677.383608767879</v>
+        <v>2309.223550921008</v>
       </c>
       <c r="X11" t="n">
-        <v>2351.367483454872</v>
+        <v>2309.223550921008</v>
       </c>
       <c r="Y11" t="n">
-        <v>2008.677784427134</v>
+        <v>1966.533851893269</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052944</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254603</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611979</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268781</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770412</v>
+        <v>335.408918177041</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998333</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328089</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5230,19 +5230,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874609</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1768.338774781835</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C14" t="n">
-        <v>1446.825890789496</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D14" t="n">
-        <v>1136.009825130819</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>797.671205480648</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="F14" t="n">
-        <v>434.1349336391137</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218345</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084341</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416636</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638545</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243048</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2450.178680925621</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>2450.178680925621</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>2107.488981897883</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052935</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254599</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611979</v>
+        <v>535.3126933611975</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268781</v>
+        <v>434.8492327268777</v>
       </c>
       <c r="F16" t="n">
-        <v>335.408918177041</v>
+        <v>335.4089181770406</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998329</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657646</v>
+        <v>116.388160665764</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>158.1401341315255</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L16" t="n">
-        <v>771.697886033711</v>
+        <v>771.6978860337111</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5452,25 +5452,25 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813345</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588245</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.515482921748</v>
       </c>
       <c r="W16" t="n">
         <v>1247.547945832861</v>
@@ -5479,7 +5479,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874599</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1731.032454542914</v>
+        <v>1684.621236373654</v>
       </c>
       <c r="C17" t="n">
-        <v>1457.426285164256</v>
+        <v>1411.015066994996</v>
       </c>
       <c r="D17" t="n">
-        <v>1194.516934119259</v>
+        <v>1148.105715949999</v>
       </c>
       <c r="E17" t="n">
-        <v>904.0850290827677</v>
+        <v>857.6738109135077</v>
       </c>
       <c r="F17" t="n">
-        <v>588.4554718549134</v>
+        <v>542.0442536856536</v>
       </c>
       <c r="G17" t="n">
-        <v>268.7393692616629</v>
+        <v>268.7393692616628</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810556</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5534,31 +5534,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3310.671500698019</v>
       </c>
       <c r="T17" t="n">
-        <v>3214.984421555147</v>
+        <v>3200.050100643995</v>
       </c>
       <c r="U17" t="n">
-        <v>3056.810292390736</v>
+        <v>3041.875971479585</v>
       </c>
       <c r="V17" t="n">
-        <v>2852.580649867029</v>
+        <v>2806.169431697767</v>
       </c>
       <c r="W17" t="n">
-        <v>2595.168342158668</v>
+        <v>2548.757123989407</v>
       </c>
       <c r="X17" t="n">
-        <v>2317.058931459341</v>
+        <v>2270.64771329008</v>
       </c>
       <c r="Y17" t="n">
-        <v>2022.275947045283</v>
+        <v>1975.864728876022</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>424.1192475095343</v>
+        <v>424.1192475095332</v>
       </c>
       <c r="C19" t="n">
-        <v>350.5394121433807</v>
+        <v>350.5394121433798</v>
       </c>
       <c r="D19" t="n">
-        <v>295.7791202927983</v>
+        <v>295.7791202927975</v>
       </c>
       <c r="E19" t="n">
-        <v>243.2223742721585</v>
+        <v>243.2223742721579</v>
       </c>
       <c r="F19" t="n">
-        <v>191.6887743360014</v>
+        <v>191.688774336001</v>
       </c>
       <c r="G19" t="n">
-        <v>119.3422852724737</v>
+        <v>119.3422852724734</v>
       </c>
       <c r="H19" t="n">
-        <v>68.48144605208476</v>
+        <v>68.48144605208461</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962291</v>
+        <v>129.6354881860069</v>
       </c>
       <c r="K19" t="n">
-        <v>233.362267555608</v>
+        <v>321.4050986989519</v>
       </c>
       <c r="L19" t="n">
-        <v>482.5308677232397</v>
+        <v>570.5736988665836</v>
       </c>
       <c r="M19" t="n">
-        <v>743.4221052677119</v>
+        <v>738.0061801657814</v>
       </c>
       <c r="N19" t="n">
-        <v>1008.189698542834</v>
+        <v>1002.773773440903</v>
       </c>
       <c r="O19" t="n">
-        <v>1239.566804006298</v>
+        <v>1234.150878904368</v>
       </c>
       <c r="P19" t="n">
-        <v>1431.976563004331</v>
+        <v>1426.560637902401</v>
       </c>
       <c r="Q19" t="n">
-        <v>1538.356086608146</v>
+        <v>1532.940161506216</v>
       </c>
       <c r="R19" t="n">
-        <v>1538.356086608146</v>
+        <v>1538.356086608144</v>
       </c>
       <c r="S19" t="n">
-        <v>1442.026549996726</v>
+        <v>1442.026549996724</v>
       </c>
       <c r="T19" t="n">
-        <v>1315.616282128005</v>
+        <v>1315.616282128003</v>
       </c>
       <c r="U19" t="n">
-        <v>1121.869762815402</v>
+        <v>1121.8697628154</v>
       </c>
       <c r="V19" t="n">
-        <v>962.5416221712687</v>
+        <v>962.5416221712671</v>
       </c>
       <c r="W19" t="n">
-        <v>768.4807996960615</v>
+        <v>768.48079969606</v>
       </c>
       <c r="X19" t="n">
-        <v>635.8475963597974</v>
+        <v>635.8475963597961</v>
       </c>
       <c r="Y19" t="n">
-        <v>510.4113647780206</v>
+        <v>510.4113647780194</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1684.621236373653</v>
+        <v>1684.621236373655</v>
       </c>
       <c r="C20" t="n">
-        <v>1411.015066994995</v>
+        <v>1411.015066994996</v>
       </c>
       <c r="D20" t="n">
-        <v>1148.105715949997</v>
+        <v>1148.105715949999</v>
       </c>
       <c r="E20" t="n">
-        <v>857.6738109135064</v>
+        <v>857.6738109135085</v>
       </c>
       <c r="F20" t="n">
-        <v>588.4554718549131</v>
+        <v>542.0442536856544</v>
       </c>
       <c r="G20" t="n">
-        <v>268.7393692616629</v>
+        <v>222.3281510924038</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5750,19 +5750,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5780,22 +5780,22 @@
         <v>3310.67150069802</v>
       </c>
       <c r="T20" t="n">
-        <v>3200.050100643995</v>
+        <v>3200.050100643996</v>
       </c>
       <c r="U20" t="n">
-        <v>3041.875971479585</v>
+        <v>3041.875971479586</v>
       </c>
       <c r="V20" t="n">
-        <v>2806.169431697767</v>
+        <v>2806.169431697768</v>
       </c>
       <c r="W20" t="n">
-        <v>2548.757123989406</v>
+        <v>2548.757123989408</v>
       </c>
       <c r="X20" t="n">
-        <v>2270.64771329008</v>
+        <v>2270.647713290081</v>
       </c>
       <c r="Y20" t="n">
-        <v>1975.864728876022</v>
+        <v>1975.864728876023</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>424.1192475095343</v>
+        <v>424.1192475095332</v>
       </c>
       <c r="C22" t="n">
-        <v>350.5394121433807</v>
+        <v>350.5394121433798</v>
       </c>
       <c r="D22" t="n">
-        <v>295.7791202927983</v>
+        <v>295.7791202927975</v>
       </c>
       <c r="E22" t="n">
-        <v>243.2223742721585</v>
+        <v>243.2223742721579</v>
       </c>
       <c r="F22" t="n">
-        <v>191.6887743360014</v>
+        <v>191.688774336001</v>
       </c>
       <c r="G22" t="n">
-        <v>119.3422852724737</v>
+        <v>119.3422852724734</v>
       </c>
       <c r="H22" t="n">
-        <v>68.48144605208478</v>
+        <v>68.48144605208462</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>129.6354881860103</v>
+        <v>171.7936262148975</v>
       </c>
       <c r="K22" t="n">
-        <v>321.405098698955</v>
+        <v>363.5632367278424</v>
       </c>
       <c r="L22" t="n">
-        <v>570.5736988665867</v>
+        <v>612.7318368954742</v>
       </c>
       <c r="M22" t="n">
-        <v>831.4649364110589</v>
+        <v>873.6230744399465</v>
       </c>
       <c r="N22" t="n">
-        <v>1096.232529686181</v>
+        <v>1138.390667715069</v>
       </c>
       <c r="O22" t="n">
-        <v>1327.609635149645</v>
+        <v>1327.609635149642</v>
       </c>
       <c r="P22" t="n">
-        <v>1426.560637902404</v>
+        <v>1520.019394147675</v>
       </c>
       <c r="Q22" t="n">
-        <v>1532.940161506219</v>
+        <v>1532.940161506216</v>
       </c>
       <c r="R22" t="n">
-        <v>1538.356086608146</v>
+        <v>1538.356086608144</v>
       </c>
       <c r="S22" t="n">
-        <v>1442.026549996726</v>
+        <v>1442.026549996724</v>
       </c>
       <c r="T22" t="n">
-        <v>1315.616282128005</v>
+        <v>1315.616282128003</v>
       </c>
       <c r="U22" t="n">
-        <v>1121.869762815402</v>
+        <v>1121.8697628154</v>
       </c>
       <c r="V22" t="n">
-        <v>962.5416221712687</v>
+        <v>962.5416221712671</v>
       </c>
       <c r="W22" t="n">
-        <v>768.4807996960615</v>
+        <v>768.48079969606</v>
       </c>
       <c r="X22" t="n">
-        <v>635.8475963597974</v>
+        <v>635.8475963597961</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.4113647780206</v>
+        <v>510.4113647780194</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1731.032454542914</v>
+        <v>1684.621236373654</v>
       </c>
       <c r="C23" t="n">
-        <v>1457.426285164255</v>
+        <v>1411.015066994996</v>
       </c>
       <c r="D23" t="n">
-        <v>1194.516934119258</v>
+        <v>1148.105715949999</v>
       </c>
       <c r="E23" t="n">
-        <v>904.0850290827673</v>
+        <v>857.6738109135082</v>
       </c>
       <c r="F23" t="n">
-        <v>588.4554718549131</v>
+        <v>542.0442536856541</v>
       </c>
       <c r="G23" t="n">
-        <v>268.7393692616629</v>
+        <v>222.3281510924045</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912092</v>
@@ -5999,40 +5999,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3310.671500698019</v>
+        <v>3310.67150069802</v>
       </c>
       <c r="T23" t="n">
         <v>3200.050100643995</v>
       </c>
       <c r="U23" t="n">
-        <v>3088.287189648846</v>
+        <v>3041.875971479585</v>
       </c>
       <c r="V23" t="n">
-        <v>2852.580649867029</v>
+        <v>2806.169431697768</v>
       </c>
       <c r="W23" t="n">
-        <v>2595.168342158668</v>
+        <v>2548.757123989407</v>
       </c>
       <c r="X23" t="n">
-        <v>2317.058931459341</v>
+        <v>2270.647713290081</v>
       </c>
       <c r="Y23" t="n">
-        <v>2022.275947045282</v>
+        <v>1975.864728876023</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6099,7 +6099,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6108,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>424.1192475095343</v>
+        <v>424.1192475095334</v>
       </c>
       <c r="C25" t="n">
-        <v>350.5394121433807</v>
+        <v>350.5394121433799</v>
       </c>
       <c r="D25" t="n">
-        <v>295.7791202927983</v>
+        <v>295.7791202927976</v>
       </c>
       <c r="E25" t="n">
-        <v>243.2223742721585</v>
+        <v>243.2223742721579</v>
       </c>
       <c r="F25" t="n">
-        <v>191.6887743360014</v>
+        <v>191.688774336001</v>
       </c>
       <c r="G25" t="n">
-        <v>119.3422852724737</v>
+        <v>119.3422852724734</v>
       </c>
       <c r="H25" t="n">
-        <v>68.48144605208476</v>
+        <v>68.48144605208464</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>129.6354881860103</v>
+        <v>171.7936262148974</v>
       </c>
       <c r="K25" t="n">
-        <v>321.405098698955</v>
+        <v>363.5632367278424</v>
       </c>
       <c r="L25" t="n">
-        <v>570.5736988665867</v>
+        <v>612.7318368954742</v>
       </c>
       <c r="M25" t="n">
-        <v>831.4649364110589</v>
+        <v>873.6230744399465</v>
       </c>
       <c r="N25" t="n">
-        <v>1096.232529686181</v>
+        <v>1138.390667715069</v>
       </c>
       <c r="O25" t="n">
-        <v>1234.150878904371</v>
+        <v>1276.309016933258</v>
       </c>
       <c r="P25" t="n">
-        <v>1426.560637902404</v>
+        <v>1431.976563004329</v>
       </c>
       <c r="Q25" t="n">
-        <v>1532.940161506219</v>
+        <v>1538.356086608145</v>
       </c>
       <c r="R25" t="n">
-        <v>1538.356086608146</v>
+        <v>1538.356086608145</v>
       </c>
       <c r="S25" t="n">
-        <v>1442.026549996726</v>
+        <v>1442.026549996724</v>
       </c>
       <c r="T25" t="n">
-        <v>1315.616282128005</v>
+        <v>1315.616282128004</v>
       </c>
       <c r="U25" t="n">
-        <v>1121.869762815402</v>
+        <v>1121.869762815401</v>
       </c>
       <c r="V25" t="n">
-        <v>962.5416221712687</v>
+        <v>962.5416221712674</v>
       </c>
       <c r="W25" t="n">
-        <v>768.4807996960615</v>
+        <v>768.4807996960602</v>
       </c>
       <c r="X25" t="n">
-        <v>635.8475963597974</v>
+        <v>635.8475963597963</v>
       </c>
       <c r="Y25" t="n">
-        <v>510.4113647780206</v>
+        <v>510.4113647780196</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1609.886113445501</v>
+        <v>1766.053366453801</v>
       </c>
       <c r="C26" t="n">
-        <v>1609.886113445501</v>
+        <v>1444.997564127069</v>
       </c>
       <c r="D26" t="n">
-        <v>1299.52712945243</v>
+        <v>1134.638580133998</v>
       </c>
       <c r="E26" t="n">
-        <v>961.6455914678659</v>
+        <v>796.7570421494343</v>
       </c>
       <c r="F26" t="n">
-        <v>683.3547377510596</v>
+        <v>433.6778519735068</v>
       </c>
       <c r="G26" t="n">
-        <v>316.1890022097362</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3263.221867749946</v>
+        <v>3263.221867749947</v>
       </c>
       <c r="T26" t="n">
-        <v>3105.150834747848</v>
+        <v>3105.150834747849</v>
       </c>
       <c r="U26" t="n">
-        <v>2899.527072635365</v>
+        <v>2899.527072635366</v>
       </c>
       <c r="V26" t="n">
-        <v>2616.370899905474</v>
+        <v>2616.370899905475</v>
       </c>
       <c r="W26" t="n">
-        <v>2616.370899905474</v>
+        <v>2311.508959249041</v>
       </c>
       <c r="X26" t="n">
-        <v>2290.811856258074</v>
+        <v>1985.949915601642</v>
       </c>
       <c r="Y26" t="n">
-        <v>1948.579238895943</v>
+        <v>1766.053366453801</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>756.2666781460472</v>
+        <v>756.2666781460464</v>
       </c>
       <c r="C28" t="n">
-        <v>635.2372098318203</v>
+        <v>635.2372098318197</v>
       </c>
       <c r="D28" t="n">
-        <v>533.0272850331646</v>
+        <v>533.027285033164</v>
       </c>
       <c r="E28" t="n">
-        <v>433.0209060644516</v>
+        <v>433.0209060644511</v>
       </c>
       <c r="F28" t="n">
-        <v>334.0376731802212</v>
+        <v>334.0376731802208</v>
       </c>
       <c r="G28" t="n">
-        <v>214.2415511686202</v>
+        <v>214.24155116862</v>
       </c>
       <c r="H28" t="n">
-        <v>115.931079000158</v>
+        <v>115.9310790001579</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>158.5881198719868</v>
+        <v>158.5881198719869</v>
       </c>
       <c r="K28" t="n">
-        <v>398.6314812403332</v>
+        <v>398.6314812403311</v>
       </c>
       <c r="L28" t="n">
-        <v>762.1446506816972</v>
+        <v>762.1446506816951</v>
       </c>
       <c r="M28" t="n">
-        <v>1153.255067274114</v>
+        <v>1153.255067274112</v>
       </c>
       <c r="N28" t="n">
-        <v>1541.616814972846</v>
+        <v>1541.616814972845</v>
       </c>
       <c r="O28" t="n">
-        <v>1887.899784886128</v>
+        <v>1887.899784886126</v>
       </c>
       <c r="P28" t="n">
-        <v>2167.460656312655</v>
+        <v>2167.460656312653</v>
       </c>
       <c r="Q28" t="n">
-        <v>2292.024323458038</v>
+        <v>2292.024323458036</v>
       </c>
       <c r="R28" t="n">
-        <v>2250.100580829246</v>
+        <v>2250.100580829244</v>
       </c>
       <c r="S28" t="n">
-        <v>2106.321411269752</v>
+        <v>2106.321411269751</v>
       </c>
       <c r="T28" t="n">
-        <v>1932.461510452958</v>
+        <v>1932.461510452957</v>
       </c>
       <c r="U28" t="n">
-        <v>1691.265358192282</v>
+        <v>1691.26535819228</v>
       </c>
       <c r="V28" t="n">
-        <v>1484.487584600075</v>
+        <v>1484.487584600074</v>
       </c>
       <c r="W28" t="n">
-        <v>1242.977129176794</v>
+        <v>1242.977129176793</v>
       </c>
       <c r="X28" t="n">
-        <v>1062.894292892457</v>
+        <v>1062.894292892456</v>
       </c>
       <c r="Y28" t="n">
-        <v>890.0084283626069</v>
+        <v>890.008428362606</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1367.408126648291</v>
+        <v>1305.024172789068</v>
       </c>
       <c r="C29" t="n">
-        <v>1356.792911920058</v>
+        <v>983.968370462336</v>
       </c>
       <c r="D29" t="n">
-        <v>1046.433927926987</v>
+        <v>673.6093864692657</v>
       </c>
       <c r="E29" t="n">
-        <v>1046.433927926987</v>
+        <v>673.6093864692657</v>
       </c>
       <c r="F29" t="n">
-        <v>683.3547377510597</v>
+        <v>310.5301962933381</v>
       </c>
       <c r="G29" t="n">
-        <v>316.1890022097361</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912089</v>
@@ -6473,40 +6473,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3263.221867749947</v>
       </c>
       <c r="T29" t="n">
-        <v>3167.534788607073</v>
+        <v>3105.150834747849</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.911026494589</v>
+        <v>2899.527072635366</v>
       </c>
       <c r="V29" t="n">
-        <v>2678.754853764699</v>
+        <v>2616.370899905475</v>
       </c>
       <c r="W29" t="n">
-        <v>2373.892913108265</v>
+        <v>2311.508959249041</v>
       </c>
       <c r="X29" t="n">
-        <v>2048.333869460865</v>
+        <v>1985.949915601641</v>
       </c>
       <c r="Y29" t="n">
-        <v>1706.101252098733</v>
+        <v>1643.717298239509</v>
       </c>
     </row>
     <row r="30">
@@ -6534,13 +6534,13 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>756.2666781460473</v>
+        <v>756.2666781460468</v>
       </c>
       <c r="C31" t="n">
-        <v>635.2372098318205</v>
+        <v>635.23720983182</v>
       </c>
       <c r="D31" t="n">
-        <v>533.0272850331647</v>
+        <v>533.0272850331644</v>
       </c>
       <c r="E31" t="n">
-        <v>433.0209060644517</v>
+        <v>433.0209060644514</v>
       </c>
       <c r="F31" t="n">
-        <v>334.0376731802213</v>
+        <v>334.0376731802211</v>
       </c>
       <c r="G31" t="n">
-        <v>214.2415511686203</v>
+        <v>214.2415511686201</v>
       </c>
       <c r="H31" t="n">
-        <v>115.9310790001581</v>
+        <v>115.931079000158</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>158.5881198719867</v>
+        <v>147.690927298588</v>
       </c>
       <c r="K31" t="n">
-        <v>398.6314812403343</v>
+        <v>398.6314812403323</v>
       </c>
       <c r="L31" t="n">
-        <v>762.1446506816982</v>
+        <v>762.1446506816962</v>
       </c>
       <c r="M31" t="n">
-        <v>1153.255067274115</v>
+        <v>1153.255067274113</v>
       </c>
       <c r="N31" t="n">
-        <v>1541.616814972847</v>
+        <v>1541.616814972846</v>
       </c>
       <c r="O31" t="n">
-        <v>1887.899784886128</v>
+        <v>1887.899784886127</v>
       </c>
       <c r="P31" t="n">
-        <v>2167.460656312655</v>
+        <v>2167.460656312654</v>
       </c>
       <c r="Q31" t="n">
-        <v>2292.024323458038</v>
+        <v>2292.024323458037</v>
       </c>
       <c r="R31" t="n">
-        <v>2250.100580829246</v>
+        <v>2250.100580829245</v>
       </c>
       <c r="S31" t="n">
-        <v>2106.321411269752</v>
+        <v>2106.321411269751</v>
       </c>
       <c r="T31" t="n">
-        <v>1932.461510452958</v>
+        <v>1932.461510452957</v>
       </c>
       <c r="U31" t="n">
-        <v>1691.265358192282</v>
+        <v>1691.265358192281</v>
       </c>
       <c r="V31" t="n">
-        <v>1484.487584600075</v>
+        <v>1484.487584600074</v>
       </c>
       <c r="W31" t="n">
-        <v>1242.977129176795</v>
+        <v>1242.977129176794</v>
       </c>
       <c r="X31" t="n">
-        <v>1062.894292892457</v>
+        <v>1062.894292892456</v>
       </c>
       <c r="Y31" t="n">
-        <v>890.008428362607</v>
+        <v>890.0084283626064</v>
       </c>
     </row>
     <row r="32">
@@ -6677,73 +6677,73 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C32" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D32" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E32" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F32" t="n">
-        <v>581.8252978307338</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G32" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T32" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U32" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V32" t="n">
         <v>2819.429779746128</v>
       </c>
       <c r="W32" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X32" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y32" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="33">
@@ -6753,70 +6753,70 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064588</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U33" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>402.2593958170921</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C34" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D34" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E34" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F34" t="n">
-        <v>183.0892706919198</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G34" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>67.83109325226765</v>
+        <v>67.83109325226758</v>
       </c>
       <c r="J34" t="n">
-        <v>176.361719815531</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K34" t="n">
-        <v>371.3804471090253</v>
+        <v>274.6725740832013</v>
       </c>
       <c r="L34" t="n">
-        <v>623.7981640572066</v>
+        <v>527.0902910313824</v>
       </c>
       <c r="M34" t="n">
-        <v>866.7957945255222</v>
+        <v>694.5227723305803</v>
       </c>
       <c r="N34" t="n">
-        <v>1038.10463155537</v>
+        <v>962.5394823862517</v>
       </c>
       <c r="O34" t="n">
-        <v>1272.730853799383</v>
+        <v>1197.165704630265</v>
       </c>
       <c r="P34" t="n">
-        <v>1371.681856552142</v>
+        <v>1392.824580408848</v>
       </c>
       <c r="Q34" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R34" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S34" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T34" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U34" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V34" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W34" t="n">
-        <v>736.6756869673491</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X34" t="n">
-        <v>607.3575706431751</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y34" t="n">
-        <v>485.2364260734884</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103807</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.2565860709</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464988</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307346</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912089</v>
@@ -6947,22 +6947,22 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668176</v>
@@ -6977,10 +6977,10 @@
         <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362622</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811088</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999819</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387306</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332751</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601601</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927782</v>
       </c>
       <c r="H36" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228008</v>
@@ -7020,28 +7020,28 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
@@ -7053,7 +7053,7 @@
         <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J37" t="n">
-        <v>163.8840378413012</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K37" t="n">
-        <v>358.9027651347956</v>
+        <v>253.5298502264972</v>
       </c>
       <c r="L37" t="n">
-        <v>611.3204820829768</v>
+        <v>409.2396941488544</v>
       </c>
       <c r="M37" t="n">
-        <v>875.4608364079986</v>
+        <v>673.3800484738761</v>
       </c>
       <c r="N37" t="n">
-        <v>1143.47754646367</v>
+        <v>941.3967585295474</v>
       </c>
       <c r="O37" t="n">
-        <v>1281.39589568186</v>
+        <v>1176.022980773561</v>
       </c>
       <c r="P37" t="n">
-        <v>1477.054771460442</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219655</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304675</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673502</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734893</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464983</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307339</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515857</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7227,58 +7227,58 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811088</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999819</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387306</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332751</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601601</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927782</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064571</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T39" t="n">
         <v>2242.828302297192</v>
@@ -7290,7 +7290,7 @@
         <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J40" t="n">
-        <v>175.0427429954468</v>
+        <v>155.2189959588268</v>
       </c>
       <c r="K40" t="n">
-        <v>358.9027651347957</v>
+        <v>350.237723252321</v>
       </c>
       <c r="L40" t="n">
-        <v>611.3204820829769</v>
+        <v>602.6554402005021</v>
       </c>
       <c r="M40" t="n">
-        <v>778.7529633821747</v>
+        <v>770.0879214996999</v>
       </c>
       <c r="N40" t="n">
-        <v>950.0618004120222</v>
+        <v>941.3967585295474</v>
       </c>
       <c r="O40" t="n">
-        <v>1184.688022656036</v>
+        <v>1176.022980773561</v>
       </c>
       <c r="P40" t="n">
-        <v>1380.346898434618</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219655</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304675</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673502</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734893</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7397,25 +7397,25 @@
         <v>894.1397680464971</v>
       </c>
       <c r="F41" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218377</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
@@ -7439,7 +7439,7 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515855</v>
@@ -7451,7 +7451,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960652</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218343</v>
@@ -7494,7 +7494,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919198</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218343</v>
@@ -7567,52 +7567,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>155.2189959588238</v>
+        <v>175.0427429954467</v>
       </c>
       <c r="K43" t="n">
-        <v>350.2377232523181</v>
+        <v>370.061470288941</v>
       </c>
       <c r="L43" t="n">
-        <v>602.6554402004994</v>
+        <v>525.7713142112982</v>
       </c>
       <c r="M43" t="n">
-        <v>866.7957945255212</v>
+        <v>789.9116685363199</v>
       </c>
       <c r="N43" t="n">
-        <v>1134.812504581193</v>
+        <v>961.2205055661674</v>
       </c>
       <c r="O43" t="n">
-        <v>1272.730853799382</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P43" t="n">
-        <v>1468.389729577965</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q43" t="n">
-        <v>1481.310496936506</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673487</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="44">
@@ -7631,10 +7631,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464972</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495728</v>
@@ -7649,7 +7649,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
@@ -7676,7 +7676,7 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515855</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
         <v>114.0578686404822</v>
@@ -7801,55 +7801,55 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226764</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962289</v>
+        <v>79.65384678970709</v>
       </c>
       <c r="K46" t="n">
-        <v>273.3535972631173</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L46" t="n">
-        <v>525.7713142112984</v>
+        <v>527.0902910313825</v>
       </c>
       <c r="M46" t="n">
-        <v>770.0879214996974</v>
+        <v>694.5227723305803</v>
       </c>
       <c r="N46" t="n">
-        <v>1038.104631555369</v>
+        <v>950.0618004120229</v>
       </c>
       <c r="O46" t="n">
-        <v>1272.730853799382</v>
+        <v>1184.688022656037</v>
       </c>
       <c r="P46" t="n">
-        <v>1468.389729577965</v>
+        <v>1380.346898434619</v>
       </c>
       <c r="Q46" t="n">
-        <v>1481.310496936506</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
   </sheetData>
@@ -10033,7 +10033,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>95.73650111899829</v>
+        <v>95.73650111899585</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
@@ -10267,10 +10267,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>22.62897609706798</v>
       </c>
       <c r="K31" t="n">
-        <v>95.73650111899937</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.25815758737081</v>
+        <v>15.25815758737082</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>23.2316174384345</v>
       </c>
       <c r="F11" t="n">
-        <v>27.15795811235457</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958327</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>42.3253564079647</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>139.5455787045679</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>45.94710598756773</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.78497770204004</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>31.1621282855276</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>45.94710598756834</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>45.94710598756643</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>45.94710598756576</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24260,7 +24260,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>45.94710598756868</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>335.3061941959372</v>
       </c>
       <c r="C26" t="n">
-        <v>317.8452443034643</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24452,13 +24452,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>83.94045309452997</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.1801169197771</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24503,13 +24503,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>301.8133212498698</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>121.1127075321478</v>
       </c>
     </row>
     <row r="27">
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>307.336181722513</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24692,10 +24692,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>121.9161791233675</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.1801169197772</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.76011432063262</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-5.601330064513521e-15</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-3.517186542012496e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>684213.2327789204</v>
+        <v>684213.2327789206</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>715211.3326992142</v>
+        <v>715211.3326992143</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>715211.3326992141</v>
+        <v>715211.3326992143</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>684489.3671293475</v>
+        <v>684489.3671293476</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>684489.3671293474</v>
+        <v>684489.3671293475</v>
       </c>
     </row>
     <row r="12">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>716866.7963774083</v>
+        <v>716866.7963774084</v>
       </c>
       <c r="C2" t="n">
         <v>716866.7963774084</v>
       </c>
       <c r="D2" t="n">
-        <v>716869.9013693773</v>
+        <v>716869.9013693768</v>
       </c>
       <c r="E2" t="n">
-        <v>668964.6336536129</v>
+        <v>668964.6336536127</v>
       </c>
       <c r="F2" t="n">
-        <v>668964.6336536126</v>
+        <v>668964.6336536123</v>
       </c>
       <c r="G2" t="n">
-        <v>715211.3326992152</v>
+        <v>715211.3326992146</v>
       </c>
       <c r="H2" t="n">
-        <v>715211.332699215</v>
+        <v>715211.3326992146</v>
       </c>
       <c r="I2" t="n">
-        <v>715211.3326992148</v>
+        <v>715211.3326992149</v>
       </c>
       <c r="J2" t="n">
-        <v>669405.8769824238</v>
+        <v>669405.8769824236</v>
       </c>
       <c r="K2" t="n">
-        <v>669405.8769824237</v>
+        <v>669405.8769824239</v>
       </c>
       <c r="L2" t="n">
         <v>718411.5486312478</v>
       </c>
       <c r="M2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="N2" t="n">
         <v>718411.5486312479</v>
@@ -26353,7 +26353,7 @@
         <v>718411.5486312479</v>
       </c>
       <c r="P2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312477</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9496.994971250071</v>
+        <v>9496.994971248068</v>
       </c>
       <c r="E3" t="n">
-        <v>1152439.021265977</v>
+        <v>1152439.021265978</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37942.11797403452</v>
+        <v>37942.11797403487</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>78147.77618248401</v>
+        <v>78147.77618248398</v>
       </c>
       <c r="M3" t="n">
         <v>207188.5682920731</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>463750.8212586372</v>
+        <v>463750.821258638</v>
       </c>
       <c r="E4" t="n">
-        <v>63095.10913369695</v>
+        <v>63095.109133697</v>
       </c>
       <c r="F4" t="n">
-        <v>63095.10913369695</v>
+        <v>63095.10913369703</v>
       </c>
       <c r="G4" t="n">
-        <v>91701.70120662273</v>
+        <v>91701.70120662286</v>
       </c>
       <c r="H4" t="n">
-        <v>91701.70120662276</v>
+        <v>91701.70120662288</v>
       </c>
       <c r="I4" t="n">
-        <v>91701.70120662276</v>
+        <v>91701.70120662288</v>
       </c>
       <c r="J4" t="n">
-        <v>63366.3278449283</v>
+        <v>63366.3278449284</v>
       </c>
       <c r="K4" t="n">
-        <v>63366.32784492831</v>
+        <v>63366.32784492837</v>
       </c>
       <c r="L4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.13782657693</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657705</v>
+        <v>93774.13782657699</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.137826577</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.13782657702</v>
+        <v>93774.13782657695</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.137826577</v>
       </c>
     </row>
     <row r="5">
@@ -26473,28 +26473,28 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33869.34580328352</v>
+        <v>33869.34580328347</v>
       </c>
       <c r="E5" t="n">
         <v>78255.49332178177</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
         <v>82242.68821673066</v>
       </c>
       <c r="H5" t="n">
-        <v>82242.68821673065</v>
+        <v>82242.68821673066</v>
       </c>
       <c r="I5" t="n">
-        <v>82242.68821673065</v>
+        <v>82242.68821673066</v>
       </c>
       <c r="J5" t="n">
-        <v>78293.53545634219</v>
+        <v>78293.5354563422</v>
       </c>
       <c r="K5" t="n">
-        <v>78293.53545634219</v>
+        <v>78293.5354563422</v>
       </c>
       <c r="L5" t="n">
         <v>82518.59730624987</v>
@@ -26503,10 +26503,10 @@
         <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
+        <v>82518.59730624987</v>
+      </c>
+      <c r="O5" t="n">
         <v>82518.59730624985</v>
-      </c>
-      <c r="O5" t="n">
-        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624987</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>215623.2364456771</v>
+        <v>215618.8228678091</v>
       </c>
       <c r="C6" t="n">
-        <v>215623.2364456772</v>
+        <v>215618.8228678091</v>
       </c>
       <c r="D6" t="n">
-        <v>209752.7393362065</v>
+        <v>209748.3346297448</v>
       </c>
       <c r="E6" t="n">
-        <v>-624824.9900678426</v>
+        <v>-624966.2669677807</v>
       </c>
       <c r="F6" t="n">
-        <v>527614.0311981338</v>
+        <v>527472.7542981977</v>
       </c>
       <c r="G6" t="n">
-        <v>503324.8253018272</v>
+        <v>503315.6818277346</v>
       </c>
       <c r="H6" t="n">
-        <v>541266.9432758618</v>
+        <v>541257.7998017694</v>
       </c>
       <c r="I6" t="n">
-        <v>541266.9432758614</v>
+        <v>541257.7998017699</v>
       </c>
       <c r="J6" t="n">
-        <v>527746.0136811534</v>
+        <v>527605.9974764421</v>
       </c>
       <c r="K6" t="n">
-        <v>527746.0136811533</v>
+        <v>527605.9974764425</v>
       </c>
       <c r="L6" t="n">
-        <v>463971.0373159369</v>
+        <v>463971.037315937</v>
       </c>
       <c r="M6" t="n">
-        <v>334930.2452063476</v>
+        <v>334930.2452063478</v>
       </c>
       <c r="N6" t="n">
-        <v>542118.813498421</v>
+        <v>542118.8134984211</v>
       </c>
       <c r="O6" t="n">
-        <v>542118.813498421</v>
+        <v>542118.8134984211</v>
       </c>
       <c r="P6" t="n">
         <v>542118.8134984209</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="H2" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="I2" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="J2" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="K2" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="3">
@@ -26741,16 +26741,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135408</v>
+        <v>11.08925703135174</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26765,7 +26765,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.42764746754323</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135408</v>
+        <v>11.08925703135174</v>
       </c>
       <c r="E3" t="n">
-        <v>1078.687443561945</v>
+        <v>1078.687443561947</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.877617123841957e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.42764746754323</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,40 +27868,40 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.0182479305516</v>
+        <v>339.0182479305518</v>
       </c>
       <c r="I8" t="n">
-        <v>208.7572219052751</v>
+        <v>208.7572219052755</v>
       </c>
       <c r="J8" t="n">
-        <v>177.2622388826063</v>
+        <v>177.2622388826071</v>
       </c>
       <c r="K8" t="n">
-        <v>214.4191170586404</v>
+        <v>214.4191170586416</v>
       </c>
       <c r="L8" t="n">
-        <v>228.7313680193323</v>
+        <v>228.7313680193338</v>
       </c>
       <c r="M8" t="n">
-        <v>222.5183879862406</v>
+        <v>222.5183879862422</v>
       </c>
       <c r="N8" t="n">
-        <v>221.4585556357986</v>
+        <v>221.4585556358003</v>
       </c>
       <c r="O8" t="n">
-        <v>222.5869951176001</v>
+        <v>222.5869951176016</v>
       </c>
       <c r="P8" t="n">
-        <v>224.8223464178625</v>
+        <v>224.8223464178638</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.4915592000992</v>
+        <v>217.4915592001002</v>
       </c>
       <c r="R8" t="n">
-        <v>212.7851939267118</v>
+        <v>212.7851939267124</v>
       </c>
       <c r="S8" t="n">
-        <v>208.0042044823178</v>
+        <v>208.004204482318</v>
       </c>
       <c r="T8" t="n">
         <v>222.9007009303434</v>
@@ -27947,40 +27947,40 @@
         <v>137.31966479903</v>
       </c>
       <c r="H9" t="n">
-        <v>112.0050806140149</v>
+        <v>112.005080614015</v>
       </c>
       <c r="I9" t="n">
-        <v>98.70114728588557</v>
+        <v>98.70114728588574</v>
       </c>
       <c r="J9" t="n">
-        <v>124.5841013297573</v>
+        <v>124.5841013297578</v>
       </c>
       <c r="K9" t="n">
-        <v>133.9898052373461</v>
+        <v>133.989805237347</v>
       </c>
       <c r="L9" t="n">
-        <v>133.3753828993347</v>
+        <v>133.3753828993358</v>
       </c>
       <c r="M9" t="n">
-        <v>136.0903888399303</v>
+        <v>136.0903888399316</v>
       </c>
       <c r="N9" t="n">
-        <v>125.1381096993497</v>
+        <v>125.138109699351</v>
       </c>
       <c r="O9" t="n">
-        <v>136.9211602352004</v>
+        <v>136.9211602352016</v>
       </c>
       <c r="P9" t="n">
-        <v>129.4196520121501</v>
+        <v>129.4196520121511</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.9370407214882</v>
+        <v>136.9370407214889</v>
       </c>
       <c r="R9" t="n">
-        <v>144.1985650721163</v>
+        <v>144.1985650721167</v>
       </c>
       <c r="S9" t="n">
-        <v>171.2401239007455</v>
+        <v>171.2401239007456</v>
       </c>
       <c r="T9" t="n">
         <v>200.0685869286724</v>
@@ -28029,37 +28029,37 @@
         <v>162.0493808127402</v>
       </c>
       <c r="I10" t="n">
-        <v>154.8491099721809</v>
+        <v>154.8491099721811</v>
       </c>
       <c r="J10" t="n">
-        <v>125.5816320634479</v>
+        <v>125.5816320634482</v>
       </c>
       <c r="K10" t="n">
-        <v>126.6899679269173</v>
+        <v>126.6899679269178</v>
       </c>
       <c r="L10" t="n">
-        <v>131.9116646502421</v>
+        <v>131.9116646502428</v>
       </c>
       <c r="M10" t="n">
-        <v>135.7911600297093</v>
+        <v>135.79116002971</v>
       </c>
       <c r="N10" t="n">
-        <v>124.6254548978761</v>
+        <v>124.6254548978767</v>
       </c>
       <c r="O10" t="n">
-        <v>135.6300504465396</v>
+        <v>135.6300504465402</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3094552697192</v>
+        <v>135.3094552697197</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.8305238177114</v>
+        <v>149.8305238177117</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3942526021354</v>
+        <v>176.3942526021356</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6681045004295</v>
+        <v>223.6681045004296</v>
       </c>
       <c r="T10" t="n">
         <v>227.8601476118104</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28421,10 +28421,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I15" t="n">
-        <v>-5.962269151274185e-14</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="C17" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="D17" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="E17" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="F17" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="G17" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="H17" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="T17" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="U17" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="V17" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="W17" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="X17" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
     </row>
     <row r="18">
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-6.963318810448982e-13</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="C19" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="D19" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="E19" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="F19" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="G19" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="H19" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="I19" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>51.81880627917579</v>
       </c>
       <c r="K19" t="n">
-        <v>57.28943769526731</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="L19" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="M19" t="n">
-        <v>94.40278408613577</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="O19" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="P19" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="S19" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="T19" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="U19" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="V19" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="W19" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="X19" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="C20" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="D20" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="E20" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="F20" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="G20" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="H20" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="T20" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="U20" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="V20" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="W20" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="X20" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
     </row>
     <row r="21">
@@ -28928,7 +28928,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="C22" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="D22" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="E22" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="F22" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="G22" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="H22" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="I22" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="J22" t="n">
-        <v>51.81880627917916</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="K22" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="L22" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="M22" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="N22" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="O22" t="n">
-        <v>94.40278408613577</v>
+        <v>51.8188062791759</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.40278408613577</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="S22" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="T22" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="U22" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="V22" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="W22" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="X22" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613592</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="C23" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="D23" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="E23" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="F23" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="G23" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="H23" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="T23" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="U23" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="V23" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="W23" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="X23" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
     </row>
     <row r="24">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="C25" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="D25" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="E25" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="F25" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="G25" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="H25" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="I25" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="J25" t="n">
-        <v>51.81880627917918</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="K25" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="L25" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="M25" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="N25" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>94.40278408613577</v>
+        <v>57.28943769526501</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="R25" t="n">
-        <v>94.40278408613577</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="T25" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="U25" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="V25" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="W25" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="X25" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.40278408613577</v>
+        <v>94.40278408613591</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="C26" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="D26" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="E26" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="F26" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="G26" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="H26" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="T26" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="U26" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="V26" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="W26" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="X26" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
     </row>
     <row r="27">
@@ -29369,7 +29369,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="C28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="D28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="E28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="F28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="G28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="H28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="I28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="J28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="K28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="L28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="M28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="N28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="O28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="P28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="R28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="S28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="T28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="U28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="V28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="W28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="X28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.42764746754322</v>
+        <v>47.42764746754334</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="C29" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="D29" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="E29" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="F29" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="G29" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="H29" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29545,7 +29545,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="T29" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="U29" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="V29" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="W29" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="X29" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
     </row>
     <row r="30">
@@ -29606,7 +29606,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="C31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="D31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="E31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="F31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="G31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="H31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="I31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="J31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="K31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="L31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="M31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="N31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="O31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="P31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="R31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="S31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="T31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="U31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="V31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="W31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="X31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.42764746754321</v>
+        <v>47.42764746754328</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="J34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="K34" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="M34" t="n">
-        <v>76.32843350415939</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.68472022810499</v>
+        <v>76.32843350416061</v>
       </c>
       <c r="R34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="S34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30019,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30028,31 +30028,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="36">
@@ -30080,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
-        <v>86.41330088048316</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810502</v>
+        <v>77.66073332242817</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="39">
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>-2.202682480856311e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30350,7 +30350,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30378,37 +30378,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810502</v>
+        <v>77.66073332242813</v>
       </c>
       <c r="K40" t="n">
-        <v>86.41330088048329</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30417,37 +30417,37 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
-        <v>77.66073332242513</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810502</v>
+        <v>77.66073332242772</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="45">
@@ -30827,7 +30827,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="M46" t="n">
-        <v>77.66073332242539</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810502</v>
+        <v>85.08100106221718</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810502</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04457992776423747</v>
+        <v>0.04457992776422806</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4565541852154971</v>
+        <v>0.4565541852154008</v>
       </c>
       <c r="I8" t="n">
-        <v>1.718667665130767</v>
+        <v>1.718667665130404</v>
       </c>
       <c r="J8" t="n">
-        <v>3.783665644079953</v>
+        <v>3.783665644079155</v>
       </c>
       <c r="K8" t="n">
-        <v>5.670733986340126</v>
+        <v>5.67073398633893</v>
       </c>
       <c r="L8" t="n">
-        <v>7.03504695065491</v>
+        <v>7.035046950653426</v>
       </c>
       <c r="M8" t="n">
-        <v>7.827845241032168</v>
+        <v>7.827845241030516</v>
       </c>
       <c r="N8" t="n">
-        <v>7.954507960792308</v>
+        <v>7.95450796079063</v>
       </c>
       <c r="O8" t="n">
-        <v>7.511216304086672</v>
+        <v>7.511216304085087</v>
       </c>
       <c r="P8" t="n">
-        <v>6.410649337407058</v>
+        <v>6.410649337405705</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.814130674350302</v>
+        <v>4.814130674349286</v>
       </c>
       <c r="R8" t="n">
-        <v>2.800343887420284</v>
+        <v>2.800343887419694</v>
       </c>
       <c r="S8" t="n">
-        <v>1.015865103927562</v>
+        <v>1.015865103927348</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1951486337879496</v>
+        <v>0.1951486337879084</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003566394221138997</v>
+        <v>0.003566394221138244</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0238523641806484</v>
+        <v>0.02385236418064336</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2303636224815253</v>
+        <v>0.2303636224814767</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8212327141144296</v>
+        <v>0.8212327141142562</v>
       </c>
       <c r="J9" t="n">
-        <v>2.253525336909417</v>
+        <v>2.253525336908942</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85163373701286</v>
+        <v>3.851633737012047</v>
       </c>
       <c r="L9" t="n">
-        <v>5.178996880539469</v>
+        <v>5.178996880538376</v>
       </c>
       <c r="M9" t="n">
-        <v>6.043645082087972</v>
+        <v>6.043645082086697</v>
       </c>
       <c r="N9" t="n">
-        <v>6.203602383983637</v>
+        <v>6.203602383982329</v>
       </c>
       <c r="O9" t="n">
-        <v>5.675084209244006</v>
+        <v>5.675084209242809</v>
       </c>
       <c r="P9" t="n">
-        <v>4.554755402180131</v>
+        <v>4.55475540217917</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.044733364533294</v>
+        <v>3.044733364532652</v>
       </c>
       <c r="R9" t="n">
-        <v>1.480938891847626</v>
+        <v>1.480938891847314</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4430472030923066</v>
+        <v>0.4430472030922131</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0961417661491924</v>
+        <v>0.09614176614917212</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001569234485568974</v>
+        <v>0.001569234485568643</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01999702087621227</v>
+        <v>0.01999702087620805</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1777916946994147</v>
+        <v>0.1777916946993772</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6013649550773655</v>
+        <v>0.6013649550772386</v>
       </c>
       <c r="J10" t="n">
-        <v>1.413789375948207</v>
+        <v>1.413789375947909</v>
       </c>
       <c r="K10" t="n">
-        <v>2.323290243618116</v>
+        <v>2.323290243617626</v>
       </c>
       <c r="L10" t="n">
-        <v>2.973011630996141</v>
+        <v>2.973011630995514</v>
       </c>
       <c r="M10" t="n">
-        <v>3.13462391789571</v>
+        <v>3.134623917895049</v>
       </c>
       <c r="N10" t="n">
-        <v>3.060089567357104</v>
+        <v>3.060089567356458</v>
       </c>
       <c r="O10" t="n">
-        <v>2.826488005303168</v>
+        <v>2.826488005302572</v>
       </c>
       <c r="P10" t="n">
-        <v>2.418548779428436</v>
+        <v>2.418548779427926</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.674477811734466</v>
+        <v>1.674477811734113</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8991387750340533</v>
+        <v>0.8991387750338636</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3484935365427174</v>
+        <v>0.3484935365426438</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08544181647108877</v>
+        <v>0.08544181647107074</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001090746593247943</v>
+        <v>0.001090746593247713</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33418,40 +33418,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33570,43 +33570,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34141,7 +34141,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095029</v>
       </c>
       <c r="O41" t="n">
         <v>738.1512123099059</v>
@@ -34214,7 +34214,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
         <v>394.6085160120764</v>
@@ -35580,7 +35580,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
         <v>281.932207763703</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,31 +36039,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034292</v>
+        <v>63.76098156951868</v>
       </c>
       <c r="K19" t="n">
-        <v>156.5933308949344</v>
+        <v>193.706677285803</v>
       </c>
       <c r="L19" t="n">
-        <v>251.6854547147795</v>
+        <v>251.6854547147796</v>
       </c>
       <c r="M19" t="n">
-        <v>263.526502570174</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
         <v>267.4420134092142</v>
       </c>
       <c r="O19" t="n">
-        <v>233.7142479428931</v>
+        <v>233.7142479428932</v>
       </c>
       <c r="P19" t="n">
         <v>194.3532919172052</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.454064246278</v>
+        <v>107.4540642462781</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.470631416088594</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36276,31 +36276,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.76098156952205</v>
+        <v>106.3449593764788</v>
       </c>
       <c r="K22" t="n">
-        <v>193.7066772858028</v>
+        <v>193.706677285803</v>
       </c>
       <c r="L22" t="n">
-        <v>251.6854547147795</v>
+        <v>251.6854547147796</v>
       </c>
       <c r="M22" t="n">
-        <v>263.526502570174</v>
+        <v>263.5265025701741</v>
       </c>
       <c r="N22" t="n">
-        <v>267.442013409214</v>
+        <v>267.4420134092142</v>
       </c>
       <c r="O22" t="n">
-        <v>233.7142479428931</v>
+        <v>191.1302701359332</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>194.3532919172052</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.454064246278</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R22" t="n">
-        <v>5.470631416088438</v>
+        <v>5.470631416088594</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36513,31 +36513,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.76098156952207</v>
+        <v>106.3449593764788</v>
       </c>
       <c r="K25" t="n">
-        <v>193.7066772858028</v>
+        <v>193.706677285803</v>
       </c>
       <c r="L25" t="n">
-        <v>251.6854547147795</v>
+        <v>251.6854547147796</v>
       </c>
       <c r="M25" t="n">
-        <v>263.526502570174</v>
+        <v>263.5265025701741</v>
       </c>
       <c r="N25" t="n">
-        <v>267.442013409214</v>
+        <v>267.4420134092142</v>
       </c>
       <c r="O25" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>194.3532919172051</v>
+        <v>157.2399455263343</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.454064246278</v>
+        <v>107.4540642462781</v>
       </c>
       <c r="R25" t="n">
-        <v>5.470631416088438</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.00606408060945</v>
+        <v>93.00606408060958</v>
       </c>
       <c r="K28" t="n">
-        <v>242.4680417862085</v>
+        <v>242.4680417862062</v>
       </c>
       <c r="L28" t="n">
-        <v>367.1850196377413</v>
+        <v>367.1850196377414</v>
       </c>
       <c r="M28" t="n">
-        <v>395.0610268610271</v>
+        <v>395.0610268610272</v>
       </c>
       <c r="N28" t="n">
-        <v>392.2845936350833</v>
+        <v>392.2845936350834</v>
       </c>
       <c r="O28" t="n">
-        <v>349.780777690183</v>
+        <v>349.7807776901831</v>
       </c>
       <c r="P28" t="n">
-        <v>282.3847186126537</v>
+        <v>282.3847186126538</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.8218860054369</v>
+        <v>125.821886005437</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.00606408060943</v>
+        <v>81.99879885495415</v>
       </c>
       <c r="K31" t="n">
-        <v>242.4680417862096</v>
+        <v>253.4753070118629</v>
       </c>
       <c r="L31" t="n">
-        <v>367.1850196377413</v>
+        <v>367.1850196377414</v>
       </c>
       <c r="M31" t="n">
-        <v>395.061026861027</v>
+        <v>395.0610268610271</v>
       </c>
       <c r="N31" t="n">
-        <v>392.2845936350833</v>
+        <v>392.2845936350834</v>
       </c>
       <c r="O31" t="n">
-        <v>349.780777690183</v>
+        <v>349.7807776901831</v>
       </c>
       <c r="P31" t="n">
-        <v>282.3847186126536</v>
+        <v>282.3847186126537</v>
       </c>
       <c r="Q31" t="n">
         <v>125.8218860054369</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37221,34 +37221,34 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.332299818266897</v>
+        <v>1.332299818266812</v>
       </c>
       <c r="J34" t="n">
-        <v>109.6268955184479</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K34" t="n">
-        <v>196.988613427772</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L34" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M34" t="n">
-        <v>245.4521519881976</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N34" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O34" t="n">
         <v>236.9961840848623</v>
       </c>
       <c r="P34" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q34" t="n">
-        <v>110.7360003882472</v>
+        <v>89.37971366430284</v>
       </c>
       <c r="R34" t="n">
-        <v>8.752567558057663</v>
+        <v>8.752567558057578</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129129</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37324,7 +37324,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,31 +37461,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>98.35547617082605</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K37" t="n">
-        <v>196.9886134277721</v>
+        <v>176.9646265220952</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567487</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121432</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511833</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O37" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P37" t="n">
-        <v>197.6352280591744</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.752567558057549</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193733</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184479</v>
+        <v>89.60290861277102</v>
       </c>
       <c r="K40" t="n">
-        <v>185.7171940801503</v>
+        <v>196.9886134277719</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M40" t="n">
         <v>169.1237184840382</v>
@@ -37713,16 +37713,16 @@
         <v>173.0392293230783</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591744</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>8.752567558057549</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -37862,7 +37862,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -37935,31 +37935,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>89.60290861276802</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K43" t="n">
-        <v>196.9886134277721</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567487</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121432</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591744</v>
+        <v>177.611241153497</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057692</v>
+        <v>8.752567558057564</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.332299818266868</v>
       </c>
       <c r="J46" t="n">
         <v>11.94217529034289</v>
       </c>
       <c r="K46" t="n">
-        <v>196.9886134277721</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
         <v>254.9673908567487</v>
       </c>
       <c r="M46" t="n">
-        <v>246.7844518064636</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511833</v>
+        <v>258.1202303852955</v>
       </c>
       <c r="O46" t="n">
         <v>236.9961840848623</v>
       </c>
       <c r="P46" t="n">
-        <v>197.6352280591744</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057692</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
